--- a/data_year/zb/公共管理、社会保障及其他/人民检察院审查批准、决定逮捕犯罪嫌疑人和提起公诉被告人情况/人民检察院决定起诉件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院审查批准、决定逮捕犯罪嫌疑人和提起公诉被告人情况/人民检察院决定起诉件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,904 +503,444 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>480119</v>
+        <v>766394</v>
       </c>
       <c r="C2" t="n">
-        <v>119130</v>
+        <v>170905</v>
       </c>
       <c r="D2" t="n">
-        <v>224415</v>
+        <v>288987</v>
       </c>
       <c r="E2" t="n">
-        <v>456376</v>
+        <v>736256</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>39249</v>
+        <v>89824</v>
       </c>
       <c r="H2" t="n">
-        <v>270</v>
+        <v>419</v>
       </c>
       <c r="I2" t="n">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="J2" t="n">
-        <v>57754</v>
+        <v>155242</v>
       </c>
       <c r="K2" t="n">
-        <v>23743</v>
+        <v>30138</v>
       </c>
       <c r="L2" t="n">
-        <v>2158</v>
+        <v>6057</v>
       </c>
       <c r="M2" t="n">
-        <v>15401</v>
+        <v>30686</v>
       </c>
       <c r="N2" t="n">
-        <v>21585</v>
+        <v>24081</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>569968</v>
+        <v>824052</v>
       </c>
       <c r="C3" t="n">
-        <v>134331</v>
+        <v>173501</v>
       </c>
       <c r="D3" t="n">
-        <v>267130</v>
+        <v>296692</v>
       </c>
       <c r="E3" t="n">
-        <v>545749</v>
+        <v>796774</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>51751</v>
+        <v>123206</v>
       </c>
       <c r="H3" t="n">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="I3" t="n">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="J3" t="n">
-        <v>77928</v>
+        <v>168936</v>
       </c>
       <c r="K3" t="n">
-        <v>24219</v>
+        <v>27278</v>
       </c>
       <c r="L3" t="n">
-        <v>2437</v>
+        <v>5556</v>
       </c>
       <c r="M3" t="n">
-        <v>14120</v>
+        <v>33860</v>
       </c>
       <c r="N3" t="n">
-        <v>21782</v>
+        <v>21722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>583755</v>
+        <v>979717</v>
       </c>
       <c r="C4" t="n">
-        <v>137406</v>
+        <v>180747</v>
       </c>
       <c r="D4" t="n">
-        <v>280359</v>
+        <v>335940</v>
       </c>
       <c r="E4" t="n">
-        <v>561579</v>
+        <v>947796</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>53512</v>
+        <v>178878</v>
       </c>
       <c r="H4" t="n">
-        <v>249</v>
+        <v>385</v>
       </c>
       <c r="I4" t="n">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="J4" t="n">
-        <v>75700</v>
+        <v>184221</v>
       </c>
       <c r="K4" t="n">
-        <v>22176</v>
+        <v>31921</v>
       </c>
       <c r="L4" t="n">
-        <v>2196</v>
+        <v>6872</v>
       </c>
       <c r="M4" t="n">
-        <v>14201</v>
+        <v>67384</v>
       </c>
       <c r="N4" t="n">
-        <v>19980</v>
+        <v>25049</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>560978</v>
+        <v>958727</v>
       </c>
       <c r="C5" t="n">
-        <v>132750</v>
+        <v>176505</v>
       </c>
       <c r="D5" t="n">
-        <v>265226</v>
-      </c>
-      <c r="E5" t="n">
-        <v>538217</v>
-      </c>
+        <v>301184</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>55245</v>
-      </c>
-      <c r="H5" t="n">
-        <v>186</v>
-      </c>
+        <v>194456</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="J5" t="n">
-        <v>71816</v>
-      </c>
-      <c r="K5" t="n">
-        <v>22761</v>
-      </c>
+        <v>202172</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>2913</v>
+        <v>7044</v>
       </c>
       <c r="M5" t="n">
-        <v>12870</v>
+        <v>51727</v>
       </c>
       <c r="N5" t="n">
-        <v>19848</v>
+        <v>24780</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>612790</v>
+        <v>1027115</v>
       </c>
       <c r="C6" t="n">
-        <v>137883</v>
+        <v>176292</v>
       </c>
       <c r="D6" t="n">
-        <v>286435</v>
-      </c>
-      <c r="E6" t="n">
-        <v>586960</v>
-      </c>
+        <v>309512</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>69509</v>
-      </c>
-      <c r="H6" t="n">
-        <v>271</v>
-      </c>
+        <v>221217</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="J6" t="n">
-        <v>79500</v>
-      </c>
-      <c r="K6" t="n">
-        <v>25830</v>
-      </c>
+        <v>228684</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3652</v>
+        <v>6931</v>
       </c>
       <c r="M6" t="n">
-        <v>13203</v>
+        <v>56962</v>
       </c>
       <c r="N6" t="n">
-        <v>22178</v>
+        <v>26589</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>654871</v>
+        <v>1050879</v>
       </c>
       <c r="C7" t="n">
-        <v>145416</v>
+        <v>162536</v>
       </c>
       <c r="D7" t="n">
-        <v>305852</v>
-      </c>
-      <c r="E7" t="n">
-        <v>630063</v>
-      </c>
+        <v>297829</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>75107</v>
-      </c>
-      <c r="H7" t="n">
-        <v>185</v>
-      </c>
+        <v>239241</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="J7" t="n">
-        <v>88354</v>
-      </c>
-      <c r="K7" t="n">
-        <v>24808</v>
-      </c>
+        <v>262683</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>3662</v>
+        <v>5610</v>
       </c>
       <c r="M7" t="n">
-        <v>14932</v>
+        <v>56383</v>
       </c>
       <c r="N7" t="n">
-        <v>21146</v>
+        <v>25842</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>670727</v>
+        <v>1069547</v>
       </c>
       <c r="C8" t="n">
-        <v>147742</v>
+        <v>156618</v>
       </c>
       <c r="D8" t="n">
-        <v>306401</v>
-      </c>
-      <c r="E8" t="n">
-        <v>646279</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
+        <v>316074</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>79548</v>
-      </c>
-      <c r="H8" t="n">
-        <v>258</v>
-      </c>
+        <v>269422</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="J8" t="n">
-        <v>95437</v>
-      </c>
-      <c r="K8" t="n">
-        <v>24448</v>
-      </c>
+        <v>241710</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>3737</v>
+        <v>5163</v>
       </c>
       <c r="M8" t="n">
-        <v>16692</v>
+        <v>57734</v>
       </c>
       <c r="N8" t="n">
-        <v>20711</v>
+        <v>22202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>711144</v>
+        <v>1219603</v>
       </c>
       <c r="C9" t="n">
-        <v>151669</v>
+        <v>163061</v>
       </c>
       <c r="D9" t="n">
-        <v>319303</v>
-      </c>
-      <c r="E9" t="n">
-        <v>686456</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
+        <v>328315</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>85425</v>
-      </c>
-      <c r="H9" t="n">
-        <v>231</v>
-      </c>
+        <v>342471</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J9" t="n">
-        <v>109821</v>
-      </c>
-      <c r="K9" t="n">
-        <v>24688</v>
-      </c>
+        <v>297530</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4192</v>
+        <v>4995</v>
       </c>
       <c r="M9" t="n">
-        <v>19788</v>
+        <v>58081</v>
       </c>
       <c r="N9" t="n">
-        <v>20496</v>
+        <v>24825</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>750934</v>
+        <v>1189480</v>
       </c>
       <c r="C10" t="n">
-        <v>158361</v>
+        <v>161740</v>
       </c>
       <c r="D10" t="n">
-        <v>330034</v>
-      </c>
-      <c r="E10" t="n">
-        <v>724250</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
+        <v>305889</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>89521</v>
-      </c>
-      <c r="H10" t="n">
-        <v>477</v>
-      </c>
+        <v>363833</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="J10" t="n">
-        <v>123422</v>
-      </c>
-      <c r="K10" t="n">
-        <v>26684</v>
-      </c>
+        <v>282174</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4908</v>
+        <v>1636</v>
       </c>
       <c r="M10" t="n">
-        <v>22242</v>
+        <v>60454</v>
       </c>
       <c r="N10" t="n">
-        <v>21776</v>
+        <v>13332</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>749838</v>
+        <v>1275233</v>
       </c>
       <c r="C11" t="n">
-        <v>163369</v>
+        <v>159564</v>
       </c>
       <c r="D11" t="n">
-        <v>309033</v>
-      </c>
-      <c r="E11" t="n">
-        <v>723324</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
+        <v>312506</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>86713</v>
-      </c>
-      <c r="H11" t="n">
-        <v>371</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210</v>
-      </c>
+        <v>417725</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>137928</v>
-      </c>
-      <c r="K11" t="n">
-        <v>26514</v>
-      </c>
+        <v>302499</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5079</v>
+        <v>1794</v>
       </c>
       <c r="M11" t="n">
-        <v>25698</v>
+        <v>68117</v>
       </c>
       <c r="N11" t="n">
-        <v>21435</v>
+        <v>12428</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>766394</v>
+        <v>1092162</v>
       </c>
       <c r="C12" t="n">
-        <v>170905</v>
+        <v>130812</v>
       </c>
       <c r="D12" t="n">
-        <v>288987</v>
-      </c>
-      <c r="E12" t="n">
-        <v>736256</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
+        <v>269951</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>89824</v>
-      </c>
-      <c r="H12" t="n">
-        <v>419</v>
-      </c>
-      <c r="I12" t="n">
-        <v>191</v>
-      </c>
+        <v>365412</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>155242</v>
-      </c>
-      <c r="K12" t="n">
-        <v>30138</v>
-      </c>
+        <v>248306</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6057</v>
+        <v>1646</v>
       </c>
       <c r="M12" t="n">
-        <v>30686</v>
+        <v>64996</v>
       </c>
       <c r="N12" t="n">
-        <v>24081</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>824052</v>
-      </c>
-      <c r="C13" t="n">
-        <v>173501</v>
-      </c>
-      <c r="D13" t="n">
-        <v>296692</v>
-      </c>
-      <c r="E13" t="n">
-        <v>796774</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>123206</v>
-      </c>
-      <c r="H13" t="n">
-        <v>377</v>
-      </c>
-      <c r="I13" t="n">
-        <v>200</v>
-      </c>
-      <c r="J13" t="n">
-        <v>168936</v>
-      </c>
-      <c r="K13" t="n">
-        <v>27278</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5556</v>
-      </c>
-      <c r="M13" t="n">
-        <v>33860</v>
-      </c>
-      <c r="N13" t="n">
-        <v>21722</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>979717</v>
-      </c>
-      <c r="C14" t="n">
-        <v>180747</v>
-      </c>
-      <c r="D14" t="n">
-        <v>335940</v>
-      </c>
-      <c r="E14" t="n">
-        <v>947796</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>178878</v>
-      </c>
-      <c r="H14" t="n">
-        <v>385</v>
-      </c>
-      <c r="I14" t="n">
-        <v>240</v>
-      </c>
-      <c r="J14" t="n">
-        <v>184221</v>
-      </c>
-      <c r="K14" t="n">
-        <v>31921</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6872</v>
-      </c>
-      <c r="M14" t="n">
-        <v>67384</v>
-      </c>
-      <c r="N14" t="n">
-        <v>25049</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>958727</v>
-      </c>
-      <c r="C15" t="n">
-        <v>176505</v>
-      </c>
-      <c r="D15" t="n">
-        <v>301184</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>194456</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>247</v>
-      </c>
-      <c r="J15" t="n">
-        <v>202172</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>7044</v>
-      </c>
-      <c r="M15" t="n">
-        <v>51727</v>
-      </c>
-      <c r="N15" t="n">
-        <v>24780</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1027115</v>
-      </c>
-      <c r="C16" t="n">
-        <v>176292</v>
-      </c>
-      <c r="D16" t="n">
-        <v>309512</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>13</v>
-      </c>
-      <c r="G16" t="n">
-        <v>221217</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>252</v>
-      </c>
-      <c r="J16" t="n">
-        <v>228684</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>6931</v>
-      </c>
-      <c r="M16" t="n">
-        <v>56962</v>
-      </c>
-      <c r="N16" t="n">
-        <v>26589</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1050879</v>
-      </c>
-      <c r="C17" t="n">
-        <v>162536</v>
-      </c>
-      <c r="D17" t="n">
-        <v>297829</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>239241</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>192</v>
-      </c>
-      <c r="J17" t="n">
-        <v>262683</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>5610</v>
-      </c>
-      <c r="M17" t="n">
-        <v>56383</v>
-      </c>
-      <c r="N17" t="n">
-        <v>25842</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1069547</v>
-      </c>
-      <c r="C18" t="n">
-        <v>156618</v>
-      </c>
-      <c r="D18" t="n">
-        <v>316074</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>269422</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>225</v>
-      </c>
-      <c r="J18" t="n">
-        <v>241710</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>5163</v>
-      </c>
-      <c r="M18" t="n">
-        <v>57734</v>
-      </c>
-      <c r="N18" t="n">
-        <v>22202</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1219603</v>
-      </c>
-      <c r="C19" t="n">
-        <v>163061</v>
-      </c>
-      <c r="D19" t="n">
-        <v>328315</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>342471</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>211</v>
-      </c>
-      <c r="J19" t="n">
-        <v>297530</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>4995</v>
-      </c>
-      <c r="M19" t="n">
-        <v>58081</v>
-      </c>
-      <c r="N19" t="n">
-        <v>24825</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1189480</v>
-      </c>
-      <c r="C20" t="n">
-        <v>161740</v>
-      </c>
-      <c r="D20" t="n">
-        <v>305889</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>363833</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>247</v>
-      </c>
-      <c r="J20" t="n">
-        <v>282174</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1636</v>
-      </c>
-      <c r="M20" t="n">
-        <v>60454</v>
-      </c>
-      <c r="N20" t="n">
-        <v>13332</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1275233</v>
-      </c>
-      <c r="C21" t="n">
-        <v>159564</v>
-      </c>
-      <c r="D21" t="n">
-        <v>312506</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>417725</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>302499</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1794</v>
-      </c>
-      <c r="M21" t="n">
-        <v>68117</v>
-      </c>
-      <c r="N21" t="n">
-        <v>12428</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1092162</v>
-      </c>
-      <c r="C22" t="n">
-        <v>130812</v>
-      </c>
-      <c r="D22" t="n">
-        <v>269951</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>365412</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>248306</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1646</v>
-      </c>
-      <c r="M22" t="n">
-        <v>64996</v>
-      </c>
-      <c r="N22" t="n">
         <v>10525</v>
       </c>
     </row>
